--- a/biology/Botanique/Hélianthème/Hélianthème.xlsx
+++ b/biology/Botanique/Hélianthème/Hélianthème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me</t>
+          <t>Hélianthème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helianthemum
 Les hélianthèmes sont des plantes dicotylédones, généralement des sous-arbrisseaux, appartenant à la famille des Cistacées et au genre Helianthemum. Leur nom signifie en grec « fleur (ánthos) [qui évolue avec le] soleil (hêlios) », parce que la fleur s'oriente en direction du soleil, comme celle les tournesols.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me</t>
+          <t>Hélianthème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hélianthèmes sont des plantes pubescentes à feuilles non dentées, assez proches des cistes, avec lesquels les différences sont rares : les fleurs et l'ensemble de la plante sont plus petits (le diamètre des fleurs est inférieur à 3 cm), deux des cinq sépales sont plus petits que les trois autres, les ovaires ont une ou trois loges (contre cinq ou dix pour le ciste). Pour le reste, les caractéristiques sont les mêmes : cinq pétales un peu froissés, généralement jaunes, parfois blancs, orangés ou roses, avec de nombreuses étamines ; des fleurs formant des sortes de petites grappes portées par des tiges molles à leur extrémité (les boutons sont penchés vers le sol avant d'éclore). Par son aspect, le genre Helianthemum est assez proche aussi du genre Fumana, mais dans celui-ci les fleurs sont solitaires et les étamines extérieures ont des anthères non développées.
 Des extraits aqueux de cette fleur peuvent être utilisés dans certains anti-stress.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me</t>
+          <t>Hélianthème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Principales espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Helianthemum aegyptiacum : Hélianthème d'Égypte (?). Fleurs jaune pâle avec des taches plus sombres à la base. Plante annuelle rencontrée notamment en Espagne.
 Helianthemum apenninum : Hélianthème des Apennins. Fleurs blanches, jaunes au centre. Feuilles étroites à très étroites. Plante pérenne rencontrée en région méditerranéenne.
@@ -564,7 +580,7 @@
 Helianthemum pilosum : Hélianthème velu.
 Helianthemum syriacum : Hélianthème de Syrie ou à feuilles de lavande.
 On donne aussi le nom d'hélianthème à l'espèce Tuberaria guttata (hélianthème à gouttes).
-Selon Catalogue of Life                                   (17 janvier 2018)[1] :
+Selon Catalogue of Life                                   (17 janvier 2018) :
 Helianthemum abelardoi Alcaraz
 Helianthemum aegyptiacum (L.) Miller
 Helianthemum aganae Marrero Rodr. &amp; R.Mesa
@@ -715,7 +731,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9lianth%C3%A8me</t>
+          <t>Hélianthème</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -733,7 +749,9 @@
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le papillon de nuit (hétérocère) suivant se nourrit d'hélianthème :
 livrée des prés, Malacosoma castrensis (Lasiocampidae).</t>
